--- a/2021-04-30/web_tables/mae_ind_prod_wide.xlsx
+++ b/2021-04-30/web_tables/mae_ind_prod_wide.xlsx
@@ -391,16 +391,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>3.21</v>
+        <v>2.81</v>
       </c>
       <c r="C2">
-        <v>3.05</v>
+        <v>2.61</v>
       </c>
       <c r="D2">
-        <v>2.94</v>
+        <v>2.85</v>
       </c>
       <c r="E2">
-        <v>3.03</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="3">
@@ -410,16 +410,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>3.09</v>
+        <v>2.7</v>
       </c>
       <c r="C3">
-        <v>2.71</v>
+        <v>2.39</v>
       </c>
       <c r="D3">
-        <v>2.99</v>
+        <v>2.87</v>
       </c>
       <c r="E3">
-        <v>3.29</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="4">
@@ -429,16 +429,16 @@
         </is>
       </c>
       <c r="B4">
-        <v>3.04</v>
+        <v>2.73</v>
       </c>
       <c r="C4">
-        <v>2.63</v>
+        <v>2.37</v>
       </c>
       <c r="D4">
-        <v>3.05</v>
+        <v>2.85</v>
       </c>
       <c r="E4">
-        <v>3.21</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="5">
@@ -448,16 +448,16 @@
         </is>
       </c>
       <c r="B5">
-        <v>3.1</v>
+        <v>2.81</v>
       </c>
       <c r="C5">
-        <v>2.8</v>
+        <v>2.48</v>
       </c>
       <c r="D5">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="E5">
-        <v>3.61</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="6">
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B6">
-        <v>3.17</v>
+        <v>2.94</v>
       </c>
       <c r="C6">
-        <v>2.84</v>
+        <v>2.51</v>
       </c>
       <c r="D6">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="E6">
-        <v>3.28</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="7">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B7">
-        <v>3.27</v>
+        <v>2.94</v>
       </c>
       <c r="C7">
-        <v>2.81</v>
+        <v>2.46</v>
       </c>
       <c r="D7">
-        <v>2.92</v>
+        <v>2.78</v>
       </c>
       <c r="E7">
-        <v>3.2</v>
+        <v>3.36</v>
       </c>
     </row>
   </sheetData>
